--- a/i_test/test_D3_source_population/D3_bleeding_events.xlsx
+++ b/i_test/test_D3_source_population/D3_bleeding_events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>person_id</t>
   </si>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,12 +400,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>500</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
